--- a/biology/Zoologie/Colombe_de_Chapman/Colombe_de_Chapman.xlsx
+++ b/biology/Zoologie/Colombe_de_Chapman/Colombe_de_Chapman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptotila ochraceiventris
 La Colombe de Chapman (Leptotila ochraceiventris) est une espèce d'oiseau de la famille des Columbidae. Le nom de l'espèce est celui de son premier descripteur Frank Michler Chapman (1864-1945).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 23 à 25 cm pour une masse de 150 g environ.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit dans la région du Tumbes (nord-ouest du Pérou et extrême sud-ouest de l'Équateur).
 </t>
